--- a/biology/Botanique/Lilium_auratum/Lilium_auratum.xlsx
+++ b/biology/Botanique/Lilium_auratum/Lilium_auratum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lilium auratum, aussi appelé lis doré du Japon, est une espèce de lys originaire du Japon.
 </t>
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Lilium auratum est originaire du Japon, principalement de l'île de Honshū[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Lilium auratum est originaire du Japon, principalement de l'île de Honshū,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fleur de Lilium auratum s'épanouit en été, du mois de juillet à août[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fleur de Lilium auratum s'épanouit en été, du mois de juillet à août,.
 </t>
         </is>
       </c>
@@ -573,16 +589,12 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Lilium auratum a été décrite par le botaniste britannique John Lindley en 1862.
-Synonymie
-Lilium dexteri
-Lilium wittei
-Nom vernaculaire
-Lys doré du Japon, en français
-Golden-ray lily of Japan, dans le monde anglophone[1]
-Yamayuri (lis de montagne), en japonais[1],[2]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Lilium auratum a été décrite par le botaniste britannique John Lindley en 1862.
+</t>
         </is>
       </c>
     </row>
@@ -607,12 +619,89 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lilium dexteri
+Lilium wittei</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lilium_auratum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lilium_auratum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lys doré du Japon, en français
+Golden-ray lily of Japan, dans le monde anglophone
+Yamayuri (lis de montagne), en japonais,</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lilium_auratum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lilium_auratum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Usage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bulbes du lis doré du Japon sont comestibles et utilisés dans la cuisine japonaise[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bulbes du lis doré du Japon sont comestibles et utilisés dans la cuisine japonaise.
 </t>
         </is>
       </c>
